--- a/full_results.xlsx
+++ b/full_results.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="13395" windowHeight="6735"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="13395" windowHeight="6735" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="full_results" sheetId="1" r:id="rId1"/>
+    <sheet name="adjustment" sheetId="2" r:id="rId2"/>
+    <sheet name="Egger test" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="47">
   <si>
     <t>Outcome</t>
   </si>
@@ -25,33 +28,12 @@
     <t>Best</t>
   </si>
   <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>dhat_pcurve</t>
-  </si>
-  <si>
-    <t>rhat_pcurve</t>
-  </si>
-  <si>
-    <t>naive.FE.r</t>
-  </si>
-  <si>
-    <t>naive.RE.r</t>
-  </si>
-  <si>
     <t>heterogeneity_RE</t>
   </si>
   <si>
     <t>heterogeneity_RE_pval</t>
   </si>
   <si>
-    <t>PET.b0</t>
-  </si>
-  <si>
     <t>PET.b0.se</t>
   </si>
   <si>
@@ -73,9 +55,6 @@
     <t>PET_heterogeneity_p</t>
   </si>
   <si>
-    <t>PEESE.b0</t>
-  </si>
-  <si>
     <t>PEESE.b0.se</t>
   </si>
   <si>
@@ -115,38 +94,103 @@
     <t>PEESE.r.UL</t>
   </si>
   <si>
-    <t>AggAff</t>
-  </si>
-  <si>
-    <t>Exp</t>
-  </si>
-  <si>
-    <t>Best-only</t>
-  </si>
-  <si>
     <t>&lt; .001</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Nonexp</t>
-  </si>
-  <si>
-    <t>PhysArous</t>
-  </si>
-  <si>
-    <t>AggBeh</t>
-  </si>
-  <si>
-    <t>AggCog</t>
+    <t>Affect</t>
+  </si>
+  <si>
+    <t>Arousal</t>
+  </si>
+  <si>
+    <t>Behavior</t>
+  </si>
+  <si>
+    <t>Cognition</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Cross-Section</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>p-curve</t>
+  </si>
+  <si>
+    <t>Fixed-effects</t>
+  </si>
+  <si>
+    <t>Random-effects</t>
+  </si>
+  <si>
+    <t>PET</t>
+  </si>
+  <si>
+    <t>PEESE</t>
+  </si>
+  <si>
+    <t>Naïve</t>
+  </si>
+  <si>
+    <t>Adjusted</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <r>
+      <t>SE(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +322,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -464,7 +516,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -579,6 +631,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -624,8 +685,25 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -968,13 +1046,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG14"/>
+  <dimension ref="A1:AF14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:Q14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -982,108 +1062,105 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
       </c>
       <c r="D2">
         <v>18</v>
@@ -1092,25 +1169,25 @@
         <v>1318</v>
       </c>
       <c r="F2">
-        <v>0.31386250562378298</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="G2">
+        <v>-0.12</v>
+      </c>
+      <c r="H2">
         <v>0.155033822575671</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.28899999999999998</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.33500000000000002</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>43.466999999999999</v>
       </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2">
-        <v>-0.12</v>
+      <c r="L2" t="s">
+        <v>25</v>
       </c>
       <c r="M2">
         <v>9.2999999999999999E-2</v>
@@ -1125,7 +1202,7 @@
         <v>0.78</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="R2">
         <v>21.376999999999999</v>
@@ -1134,57 +1211,54 @@
         <v>0.16400000000000001</v>
       </c>
       <c r="T2">
-        <v>0.14299999999999999</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="U2">
-        <v>4.4999999999999998E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="V2">
-        <v>1E-3</v>
+        <v>10.862</v>
       </c>
       <c r="W2">
-        <v>10.862</v>
-      </c>
-      <c r="X2">
         <v>2.4529999999999998</v>
       </c>
-      <c r="Y2" t="s">
-        <v>36</v>
+      <c r="X2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2">
+        <v>23.864000000000001</v>
       </c>
       <c r="Z2">
-        <v>23.864000000000001</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="AA2">
-        <v>9.2999999999999999E-2</v>
+        <v>-0.12</v>
       </c>
       <c r="AB2">
-        <v>-0.12</v>
+        <v>-0.312</v>
       </c>
       <c r="AC2">
-        <v>-0.312</v>
+        <v>6.3E-2</v>
       </c>
       <c r="AD2">
-        <v>6.3E-2</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="AE2">
-        <v>0.14399999999999999</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AF2">
-        <v>5.5E-2</v>
-      </c>
-      <c r="AG2">
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
         <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
       </c>
       <c r="D3">
         <v>34</v>
@@ -1193,25 +1267,25 @@
         <v>2879</v>
       </c>
       <c r="F3">
-        <v>0.33318654299289602</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="G3">
+        <v>-0.112</v>
+      </c>
+      <c r="H3">
         <v>0.164328546161532</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.17299999999999999</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.217</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>101.94799999999999</v>
       </c>
-      <c r="K3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3">
-        <v>-0.112</v>
+      <c r="L3" t="s">
+        <v>25</v>
       </c>
       <c r="M3">
         <v>5.8000000000000003E-2</v>
@@ -1226,66 +1300,63 @@
         <v>0.52800000000000002</v>
       </c>
       <c r="Q3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="R3">
         <v>74.948999999999998</v>
       </c>
       <c r="S3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="T3">
+        <v>0.03</v>
+      </c>
+      <c r="U3">
+        <v>0.04</v>
+      </c>
+      <c r="V3">
+        <v>9.3019999999999996</v>
+      </c>
+      <c r="W3">
+        <v>1.879</v>
+      </c>
+      <c r="X3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y3">
+        <v>77.444000000000003</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA3">
+        <v>-0.112</v>
+      </c>
+      <c r="AB3">
+        <v>-0.23</v>
+      </c>
+      <c r="AC3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AD3">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="U3">
-        <v>0.03</v>
-      </c>
-      <c r="V3">
-        <v>0.04</v>
-      </c>
-      <c r="W3">
-        <v>9.3019999999999996</v>
-      </c>
-      <c r="X3">
-        <v>1.879</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z3">
-        <v>77.444000000000003</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB3">
-        <v>-0.112</v>
-      </c>
-      <c r="AC3">
-        <v>-0.23</v>
-      </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AE3">
-        <v>6.0999999999999999E-2</v>
-      </c>
       <c r="AF3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="AG3">
         <v>0.12</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
         <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
       </c>
       <c r="D4">
         <v>14</v>
@@ -1294,31 +1365,31 @@
         <v>9811</v>
       </c>
       <c r="F4">
-        <v>0.33164944001345897</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="G4">
+        <v>0.106</v>
+      </c>
+      <c r="H4">
         <v>0.163590776695582</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.14799999999999999</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.16400000000000001</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>151.178</v>
       </c>
-      <c r="K4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4">
-        <v>0.106</v>
+      <c r="L4" t="s">
+        <v>25</v>
       </c>
       <c r="M4">
         <v>2.4E-2</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="O4">
         <v>1.264</v>
@@ -1333,60 +1404,57 @@
         <v>147.28100000000001</v>
       </c>
       <c r="S4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="T4">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="U4">
         <v>1.4E-2</v>
       </c>
-      <c r="V4" t="s">
-        <v>36</v>
+      <c r="U4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4">
+        <v>8.4030000000000005</v>
       </c>
       <c r="W4">
-        <v>8.4030000000000005</v>
+        <v>6.2430000000000003</v>
       </c>
       <c r="X4">
-        <v>6.2430000000000003</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="Y4">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="Z4">
         <v>149.36600000000001</v>
       </c>
-      <c r="AA4" t="s">
-        <v>36</v>
+      <c r="Z4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA4">
+        <v>0.106</v>
       </c>
       <c r="AB4">
-        <v>0.106</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="AC4">
-        <v>5.8999999999999997E-2</v>
+        <v>0.155</v>
       </c>
       <c r="AD4">
-        <v>0.155</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="AE4">
-        <v>0.13800000000000001</v>
+        <v>0.111</v>
       </c>
       <c r="AF4">
-        <v>0.111</v>
-      </c>
-      <c r="AG4">
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>11</v>
@@ -1395,25 +1463,25 @@
         <v>833</v>
       </c>
       <c r="F5">
-        <v>0.54338094437549</v>
+        <v>0.183</v>
       </c>
       <c r="G5">
+        <v>0.128</v>
+      </c>
+      <c r="H5">
         <v>0.26218602019647602</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.19900000000000001</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.21</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>18.858000000000001</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="L5">
-        <v>0.128</v>
       </c>
       <c r="M5">
         <v>0.106</v>
@@ -1437,57 +1505,54 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="T5">
-        <v>0.183</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="U5">
-        <v>5.6000000000000001E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="V5">
-        <v>1E-3</v>
+        <v>1.3140000000000001</v>
       </c>
       <c r="W5">
-        <v>1.3140000000000001</v>
+        <v>3.149</v>
       </c>
       <c r="X5">
-        <v>3.149</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="Y5">
-        <v>0.67600000000000005</v>
+        <v>18.684000000000001</v>
       </c>
       <c r="Z5">
-        <v>18.684000000000001</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AA5">
-        <v>2.8000000000000001E-2</v>
+        <v>0.129</v>
       </c>
       <c r="AB5">
-        <v>0.129</v>
+        <v>-0.08</v>
       </c>
       <c r="AC5">
-        <v>-0.08</v>
+        <v>0.35</v>
       </c>
       <c r="AD5">
-        <v>0.35</v>
+        <v>0.185</v>
       </c>
       <c r="AE5">
-        <v>0.185</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="AF5">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="AG5">
         <v>0.30199999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>24</v>
@@ -1496,25 +1561,25 @@
         <v>1770</v>
       </c>
       <c r="F6">
-        <v>0.55780207763133105</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G6">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="H6">
         <v>0.26864818159793202</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.13900000000000001</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.14799999999999999</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>35.042000000000002</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="L6">
-        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="M6">
         <v>7.3999999999999996E-2</v>
@@ -1538,57 +1603,54 @@
         <v>0.10100000000000001</v>
       </c>
       <c r="T6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="U6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="V6">
+        <v>3.8690000000000002</v>
+      </c>
+      <c r="W6">
+        <v>1.8280000000000001</v>
+      </c>
+      <c r="X6">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="Y6">
+        <v>30.562000000000001</v>
+      </c>
+      <c r="Z6">
+        <v>0.105</v>
+      </c>
+      <c r="AA6">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="AB6">
+        <v>-0.152</v>
+      </c>
+      <c r="AC6">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="AD6">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="U6">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="V6">
+      <c r="AE6">
         <v>1.6E-2</v>
       </c>
-      <c r="W6">
-        <v>3.8690000000000002</v>
-      </c>
-      <c r="X6">
-        <v>1.8280000000000001</v>
-      </c>
-      <c r="Y6">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="Z6">
-        <v>30.562000000000001</v>
-      </c>
-      <c r="AA6">
-        <v>0.105</v>
-      </c>
-      <c r="AB6">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="AC6">
-        <v>-0.152</v>
-      </c>
-      <c r="AD6">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="AE6">
-        <v>8.5000000000000006E-2</v>
-      </c>
       <c r="AF6">
-        <v>1.6E-2</v>
-      </c>
-      <c r="AG6">
         <v>0.156</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>23</v>
@@ -1597,25 +1659,25 @@
         <v>2413</v>
       </c>
       <c r="F7">
-        <v>0.141656597416462</v>
+        <v>0.15</v>
       </c>
       <c r="G7">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H7">
         <v>7.0651304052515504E-2</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.20899999999999999</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.21299999999999999</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>14.21</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.89400000000000002</v>
-      </c>
-      <c r="L7">
-        <v>7.1999999999999995E-2</v>
       </c>
       <c r="M7">
         <v>5.3999999999999999E-2</v>
@@ -1639,57 +1701,54 @@
         <v>0.999</v>
       </c>
       <c r="T7">
-        <v>0.15</v>
-      </c>
-      <c r="U7">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="V7" t="s">
-        <v>36</v>
+      <c r="U7" t="s">
+        <v>25</v>
+      </c>
+      <c r="V7">
+        <v>6.4020000000000001</v>
       </c>
       <c r="W7">
-        <v>6.4020000000000001</v>
+        <v>2.5390000000000001</v>
       </c>
       <c r="X7">
-        <v>2.5390000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="Y7">
-        <v>1.2E-2</v>
+        <v>7.851</v>
       </c>
       <c r="Z7">
-        <v>7.851</v>
+        <v>0.996</v>
       </c>
       <c r="AA7">
-        <v>0.996</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="AB7">
-        <v>7.1999999999999995E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="AC7">
-        <v>-3.5000000000000003E-2</v>
+        <v>0.18</v>
       </c>
       <c r="AD7">
-        <v>0.18</v>
+        <v>0.151</v>
       </c>
       <c r="AE7">
-        <v>0.151</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="AF7">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="AG7">
         <v>0.216</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>39</v>
@@ -1698,25 +1757,25 @@
         <v>3328</v>
       </c>
       <c r="F8">
-        <v>0.104517811770673</v>
+        <v>0.151</v>
       </c>
       <c r="G8">
+        <v>0.127</v>
+      </c>
+      <c r="H8">
         <v>5.2187692355472999E-2</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.17</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.17100000000000001</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>45.231000000000002</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.19600000000000001</v>
-      </c>
-      <c r="L8">
-        <v>0.127</v>
       </c>
       <c r="M8">
         <v>4.2999999999999997E-2</v>
@@ -1740,57 +1799,54 @@
         <v>0.20200000000000001</v>
       </c>
       <c r="T8">
-        <v>0.151</v>
-      </c>
-      <c r="U8">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="V8" t="s">
-        <v>36</v>
+      <c r="U8" t="s">
+        <v>25</v>
+      </c>
+      <c r="V8">
+        <v>1.726</v>
       </c>
       <c r="W8">
-        <v>1.726</v>
+        <v>1.448</v>
       </c>
       <c r="X8">
-        <v>1.448</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="Y8">
-        <v>0.23300000000000001</v>
+        <v>43.81</v>
       </c>
       <c r="Z8">
-        <v>43.81</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="AA8">
-        <v>0.20499999999999999</v>
+        <v>0.127</v>
       </c>
       <c r="AB8">
-        <v>0.127</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="AC8">
-        <v>4.2000000000000003E-2</v>
+        <v>0.214</v>
       </c>
       <c r="AD8">
-        <v>0.214</v>
+        <v>0.152</v>
       </c>
       <c r="AE8">
-        <v>0.152</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="AF8">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="AG8">
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>21</v>
@@ -1799,31 +1855,31 @@
         <v>11615</v>
       </c>
       <c r="F9">
-        <v>0.55448543478461498</v>
+        <v>0.253</v>
       </c>
       <c r="G9">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="H9">
         <v>0.26716515432230098</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.26300000000000001</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.27700000000000002</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>50.732999999999997</v>
       </c>
-      <c r="K9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9">
-        <v>0.22700000000000001</v>
+      <c r="L9" t="s">
+        <v>25</v>
       </c>
       <c r="M9">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="N9" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="O9">
         <v>1.117</v>
@@ -1841,57 +1897,54 @@
         <v>1E-3</v>
       </c>
       <c r="T9">
-        <v>0.253</v>
-      </c>
-      <c r="U9">
         <v>1.2E-2</v>
       </c>
-      <c r="V9" t="s">
-        <v>36</v>
+      <c r="U9" t="s">
+        <v>25</v>
+      </c>
+      <c r="V9">
+        <v>8.9830000000000005</v>
       </c>
       <c r="W9">
-        <v>8.9830000000000005</v>
+        <v>4.41</v>
       </c>
       <c r="X9">
-        <v>4.41</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="Y9">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="Z9">
         <v>46.584000000000003</v>
       </c>
-      <c r="AA9" t="s">
-        <v>36</v>
+      <c r="Z9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA9">
+        <v>0.23100000000000001</v>
       </c>
       <c r="AB9">
-        <v>0.23100000000000001</v>
+        <v>0.189</v>
       </c>
       <c r="AC9">
-        <v>0.189</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="AD9">
-        <v>0.27400000000000002</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="AE9">
-        <v>0.25900000000000001</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="AF9">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="AG9">
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>36</v>
@@ -1900,31 +1953,31 @@
         <v>28337</v>
       </c>
       <c r="F10">
-        <v>0.46402887432852102</v>
+        <v>0.189</v>
       </c>
       <c r="G10">
+        <v>0.152</v>
+      </c>
+      <c r="H10">
         <v>0.226011005235776</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.20100000000000001</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.22900000000000001</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>176.14400000000001</v>
       </c>
-      <c r="K10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10">
-        <v>0.152</v>
+      <c r="L10" t="s">
+        <v>25</v>
       </c>
       <c r="M10">
         <v>1.2E-2</v>
       </c>
       <c r="N10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="O10">
         <v>1.6870000000000001</v>
@@ -1933,66 +1986,63 @@
         <v>0.33</v>
       </c>
       <c r="Q10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="R10">
         <v>150.02699999999999</v>
       </c>
       <c r="S10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="T10">
-        <v>0.189</v>
-      </c>
-      <c r="U10">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="V10" t="s">
-        <v>36</v>
+      <c r="U10" t="s">
+        <v>25</v>
+      </c>
+      <c r="V10">
+        <v>11.912000000000001</v>
       </c>
       <c r="W10">
-        <v>11.912000000000001</v>
-      </c>
-      <c r="X10">
         <v>2.968</v>
       </c>
-      <c r="Y10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z10">
+      <c r="X10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y10">
         <v>160.03399999999999</v>
       </c>
-      <c r="AA10" t="s">
-        <v>36</v>
+      <c r="Z10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA10">
+        <v>0.153</v>
       </c>
       <c r="AB10">
-        <v>0.153</v>
+        <v>0.13</v>
       </c>
       <c r="AC10">
-        <v>0.13</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="AD10">
+        <v>0.191</v>
+      </c>
+      <c r="AE10">
         <v>0.17699999999999999</v>
       </c>
-      <c r="AE10">
-        <v>0.191</v>
-      </c>
       <c r="AF10">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="AG10">
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>24</v>
@@ -2001,25 +2051,25 @@
         <v>2887</v>
       </c>
       <c r="F11">
-        <v>0.37677216654610701</v>
+        <v>0.18</v>
       </c>
       <c r="G11">
+        <v>0.107</v>
+      </c>
+      <c r="H11">
         <v>0.185129660882245</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.217</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.222</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>35.11</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="L11">
-        <v>0.107</v>
       </c>
       <c r="M11">
         <v>6.2E-2</v>
@@ -2043,57 +2093,54 @@
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="T11">
-        <v>0.18</v>
-      </c>
-      <c r="U11">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="V11" t="s">
-        <v>36</v>
+      <c r="U11" t="s">
+        <v>25</v>
+      </c>
+      <c r="V11">
+        <v>4.7329999999999997</v>
       </c>
       <c r="W11">
-        <v>4.7329999999999997</v>
+        <v>2.4159999999999999</v>
       </c>
       <c r="X11">
-        <v>2.4159999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="Y11">
-        <v>0.05</v>
+        <v>31.273</v>
       </c>
       <c r="Z11">
-        <v>31.273</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="AA11">
-        <v>9.0999999999999998E-2</v>
+        <v>0.107</v>
       </c>
       <c r="AB11">
-        <v>0.107</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="AC11">
-        <v>-1.4999999999999999E-2</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="AD11">
-        <v>0.23300000000000001</v>
+        <v>0.182</v>
       </c>
       <c r="AE11">
-        <v>0.182</v>
+        <v>0.126</v>
       </c>
       <c r="AF11">
-        <v>0.126</v>
-      </c>
-      <c r="AG11">
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>41</v>
@@ -2102,25 +2149,25 @@
         <v>4189.5</v>
       </c>
       <c r="F12">
-        <v>0.419183303584925</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="G12">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="H12">
         <v>0.205134435120404</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.21</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.216</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>81.087000000000003</v>
       </c>
-      <c r="K12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12">
-        <v>0.14099999999999999</v>
+      <c r="L12" t="s">
+        <v>25</v>
       </c>
       <c r="M12">
         <v>4.8000000000000001E-2</v>
@@ -2141,60 +2188,57 @@
         <v>78.551000000000002</v>
       </c>
       <c r="S12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="T12">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="U12">
         <v>2.4E-2</v>
       </c>
-      <c r="V12" t="s">
-        <v>36</v>
+      <c r="U12" t="s">
+        <v>25</v>
+      </c>
+      <c r="V12">
+        <v>3.3410000000000002</v>
       </c>
       <c r="W12">
-        <v>3.3410000000000002</v>
+        <v>1.8080000000000001</v>
       </c>
       <c r="X12">
-        <v>1.8080000000000001</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Y12">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="Z12">
         <v>77.67</v>
       </c>
-      <c r="AA12" t="s">
-        <v>36</v>
+      <c r="Z12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA12">
+        <v>0.14199999999999999</v>
       </c>
       <c r="AB12">
-        <v>0.14199999999999999</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="AC12">
-        <v>4.5999999999999999E-2</v>
+        <v>0.24</v>
       </c>
       <c r="AD12">
-        <v>0.24</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="AE12">
-        <v>0.18099999999999999</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="AF12">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="AG12">
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>16</v>
@@ -2203,25 +2247,25 @@
         <v>7221</v>
       </c>
       <c r="F13">
-        <v>0.34935090071721903</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="G13">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="H13">
         <v>0.17207011445932599</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.16800000000000001</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.184</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>41.537999999999997</v>
       </c>
-      <c r="K13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13">
-        <v>9.9000000000000005E-2</v>
+      <c r="L13" t="s">
+        <v>25</v>
       </c>
       <c r="M13">
         <v>3.1E-2</v>
@@ -2245,57 +2289,54 @@
         <v>1E-3</v>
       </c>
       <c r="T13">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="U13">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="V13" t="s">
-        <v>36</v>
+      <c r="U13" t="s">
+        <v>25</v>
+      </c>
+      <c r="V13">
+        <v>10.128</v>
       </c>
       <c r="W13">
-        <v>10.128</v>
+        <v>5.4589999999999996</v>
       </c>
       <c r="X13">
-        <v>5.4589999999999996</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="Y13">
-        <v>6.4000000000000001E-2</v>
+        <v>38.095999999999997</v>
       </c>
       <c r="Z13">
-        <v>38.095999999999997</v>
+        <v>1E-3</v>
       </c>
       <c r="AA13">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="AB13">
-        <v>0.1</v>
+        <v>3.9E-2</v>
       </c>
       <c r="AC13">
-        <v>3.9E-2</v>
+        <v>0.161</v>
       </c>
       <c r="AD13">
-        <v>0.161</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="AE13">
-        <v>0.14799999999999999</v>
+        <v>0.115</v>
       </c>
       <c r="AF13">
-        <v>0.115</v>
-      </c>
-      <c r="AG13">
         <v>0.183</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>21</v>
@@ -2304,25 +2345,25 @@
         <v>12236</v>
       </c>
       <c r="F14">
-        <v>0.34413262524199101</v>
+        <v>0.13</v>
       </c>
       <c r="G14">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H14">
         <v>0.16957434468579899</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.16</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.191</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>105.506</v>
       </c>
-      <c r="K14" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14">
-        <v>6.3E-2</v>
+      <c r="L14" t="s">
+        <v>25</v>
       </c>
       <c r="M14">
         <v>2.1999999999999999E-2</v>
@@ -2337,55 +2378,908 @@
         <v>0.53900000000000003</v>
       </c>
       <c r="Q14" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="R14">
         <v>82.343999999999994</v>
       </c>
       <c r="S14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14">
+        <v>1.2E-2</v>
+      </c>
+      <c r="U14" t="s">
+        <v>25</v>
+      </c>
+      <c r="V14">
+        <v>17.943000000000001</v>
+      </c>
+      <c r="W14">
+        <v>4.9610000000000003</v>
+      </c>
+      <c r="X14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y14">
+        <v>92.427000000000007</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA14">
+        <v>6.3E-2</v>
+      </c>
+      <c r="AB14">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AC14">
+        <v>0.107</v>
+      </c>
+      <c r="AD14">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="AE14">
+        <v>0.106</v>
+      </c>
+      <c r="AF14">
+        <v>0.156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
         <v>36</v>
       </c>
-      <c r="T14">
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>1318</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <v>0.155033822575671</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-0.12</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4">
+        <v>34</v>
+      </c>
+      <c r="E4">
+        <v>2879</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.217</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
+        <v>0.164328546161532</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-0.112</v>
+      </c>
+      <c r="K4" s="1">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>9811</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
+        <v>0.163590776695582</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.106</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>2413</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1">
+        <v>7.0651304052515504E-2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>39</v>
+      </c>
+      <c r="E8">
+        <v>3328</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1">
+        <v>5.2187692355472999E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.127</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>11615</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1">
+        <v>0.26716515432230098</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>36</v>
+      </c>
+      <c r="E10">
+        <v>28337</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1">
+        <v>0.226011005235776</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.152</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2887</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.217</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.222</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1">
+        <v>0.185129660882245</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.107</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>41</v>
+      </c>
+      <c r="E12">
+        <v>4189.5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.216</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1">
+        <v>0.205134435120404</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>7221</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.184</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1">
+        <v>0.17207011445932599</v>
+      </c>
+      <c r="J13" s="1">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>12236</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.191</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1">
+        <v>0.16957434468579899</v>
+      </c>
+      <c r="J14" s="1">
+        <v>6.3E-2</v>
+      </c>
+      <c r="K14" s="1">
         <v>0.13</v>
       </c>
-      <c r="U14">
-        <v>1.2E-2</v>
-      </c>
-      <c r="V14" t="s">
-        <v>36</v>
-      </c>
-      <c r="W14">
-        <v>17.943000000000001</v>
-      </c>
-      <c r="X14">
-        <v>4.9610000000000003</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z14">
-        <v>92.427000000000007</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB14">
-        <v>6.3E-2</v>
-      </c>
-      <c r="AC14">
-        <v>1.9E-2</v>
-      </c>
-      <c r="AD14">
-        <v>0.107</v>
-      </c>
-      <c r="AE14">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="AF14">
-        <v>0.106</v>
-      </c>
-      <c r="AG14">
-        <v>0.156</v>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>833</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1">
+        <v>0.26218602019647602</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.128</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1770</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1">
+        <v>0.26864818159793202</v>
+      </c>
+      <c r="J16" s="1">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="K16" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3.6669999999999998</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3">
+        <v>2.7429999999999999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5">
+        <v>1.264</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0.66</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.46600000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>1.292</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.626</v>
+      </c>
+      <c r="F7" s="5">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1.5369999999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="F8" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1.117</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <v>1.6870000000000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1.2909999999999999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>2.593</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/full_results.xlsx
+++ b/full_results.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="13395" windowHeight="6735" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="13395" windowHeight="6735" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="full_results" sheetId="1" r:id="rId1"/>
-    <sheet name="adjustment" sheetId="2" r:id="rId2"/>
-    <sheet name="Egger test" sheetId="3" r:id="rId3"/>
+    <sheet name="adjustment" sheetId="2" r:id="rId1"/>
+    <sheet name="Egger test" sheetId="3" r:id="rId2"/>
+    <sheet name="dissertation_freqtable" sheetId="4" r:id="rId3"/>
+    <sheet name="full_results" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="56">
   <si>
     <t>Outcome</t>
   </si>
@@ -181,6 +181,33 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Statistically significant</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Unpublished Dissertation</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>Best Practices</t>
+  </si>
+  <si>
+    <t>Liberal coding scheme.</t>
+  </si>
+  <si>
+    <t>Conservative coding scheme.</t>
   </si>
 </sst>
 </file>
@@ -685,7 +712,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -704,6 +731,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1046,1397 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF14"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:Q14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V1" t="s">
-        <v>14</v>
-      </c>
-      <c r="W1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>1318</v>
-      </c>
-      <c r="F2">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="G2">
-        <v>-0.12</v>
-      </c>
-      <c r="H2">
-        <v>0.155033822575671</v>
-      </c>
-      <c r="I2">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="J2">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="K2">
-        <v>43.466999999999999</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="N2">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="O2">
-        <v>3.6669999999999998</v>
-      </c>
-      <c r="P2">
-        <v>0.78</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2">
-        <v>21.376999999999999</v>
-      </c>
-      <c r="S2">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="T2">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="U2">
-        <v>1E-3</v>
-      </c>
-      <c r="V2">
-        <v>10.862</v>
-      </c>
-      <c r="W2">
-        <v>2.4529999999999998</v>
-      </c>
-      <c r="X2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y2">
-        <v>23.864000000000001</v>
-      </c>
-      <c r="Z2">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="AA2">
-        <v>-0.12</v>
-      </c>
-      <c r="AB2">
-        <v>-0.312</v>
-      </c>
-      <c r="AC2">
-        <v>6.3E-2</v>
-      </c>
-      <c r="AD2">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="AE2">
-        <v>5.5E-2</v>
-      </c>
-      <c r="AF2">
-        <v>0.23499999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3">
-        <v>34</v>
-      </c>
-      <c r="E3">
-        <v>2879</v>
-      </c>
-      <c r="F3">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="G3">
-        <v>-0.112</v>
-      </c>
-      <c r="H3">
-        <v>0.164328546161532</v>
-      </c>
-      <c r="I3">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="J3">
-        <v>0.217</v>
-      </c>
-      <c r="K3">
-        <v>101.94799999999999</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="N3">
-        <v>5.5E-2</v>
-      </c>
-      <c r="O3">
-        <v>2.7429999999999999</v>
-      </c>
-      <c r="P3">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3">
-        <v>74.948999999999998</v>
-      </c>
-      <c r="S3" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3">
-        <v>0.03</v>
-      </c>
-      <c r="U3">
-        <v>0.04</v>
-      </c>
-      <c r="V3">
-        <v>9.3019999999999996</v>
-      </c>
-      <c r="W3">
-        <v>1.879</v>
-      </c>
-      <c r="X3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y3">
-        <v>77.444000000000003</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA3">
-        <v>-0.112</v>
-      </c>
-      <c r="AB3">
-        <v>-0.23</v>
-      </c>
-      <c r="AC3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="AD3">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="AE3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="AF3">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>9811</v>
-      </c>
-      <c r="F4">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="G4">
-        <v>0.106</v>
-      </c>
-      <c r="H4">
-        <v>0.163590776695582</v>
-      </c>
-      <c r="I4">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="J4">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="K4">
-        <v>151.178</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4">
-        <v>2.4E-2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4">
-        <v>1.264</v>
-      </c>
-      <c r="P4">
-        <v>0.64</v>
-      </c>
-      <c r="Q4">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="R4">
-        <v>147.28100000000001</v>
-      </c>
-      <c r="S4" t="s">
-        <v>25</v>
-      </c>
-      <c r="T4">
-        <v>1.4E-2</v>
-      </c>
-      <c r="U4" t="s">
-        <v>25</v>
-      </c>
-      <c r="V4">
-        <v>8.4030000000000005</v>
-      </c>
-      <c r="W4">
-        <v>6.2430000000000003</v>
-      </c>
-      <c r="X4">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="Y4">
-        <v>149.36600000000001</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA4">
-        <v>0.106</v>
-      </c>
-      <c r="AB4">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="AC4">
-        <v>0.155</v>
-      </c>
-      <c r="AD4">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="AE4">
-        <v>0.111</v>
-      </c>
-      <c r="AF4">
-        <v>0.16500000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>833</v>
-      </c>
-      <c r="F5">
-        <v>0.183</v>
-      </c>
-      <c r="G5">
-        <v>0.128</v>
-      </c>
-      <c r="H5">
-        <v>0.26218602019647602</v>
-      </c>
-      <c r="I5">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="J5">
-        <v>0.21</v>
-      </c>
-      <c r="K5">
-        <v>18.858000000000001</v>
-      </c>
-      <c r="L5">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="M5">
-        <v>0.106</v>
-      </c>
-      <c r="N5">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="O5">
-        <v>0.66</v>
-      </c>
-      <c r="P5">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="Q5">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="R5">
-        <v>18.327000000000002</v>
-      </c>
-      <c r="S5">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="T5">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="U5">
-        <v>1E-3</v>
-      </c>
-      <c r="V5">
-        <v>1.3140000000000001</v>
-      </c>
-      <c r="W5">
-        <v>3.149</v>
-      </c>
-      <c r="X5">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="Y5">
-        <v>18.684000000000001</v>
-      </c>
-      <c r="Z5">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AA5">
-        <v>0.129</v>
-      </c>
-      <c r="AB5">
-        <v>-0.08</v>
-      </c>
-      <c r="AC5">
-        <v>0.35</v>
-      </c>
-      <c r="AD5">
-        <v>0.185</v>
-      </c>
-      <c r="AE5">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="AF5">
-        <v>0.30199999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1770</v>
-      </c>
-      <c r="F6">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="G6">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="H6">
-        <v>0.26864818159793202</v>
-      </c>
-      <c r="I6">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="J6">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="K6">
-        <v>35.042000000000002</v>
-      </c>
-      <c r="L6">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="M6">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="N6">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="O6">
-        <v>1.292</v>
-      </c>
-      <c r="P6">
-        <v>0.626</v>
-      </c>
-      <c r="Q6">
-        <v>3.9E-2</v>
-      </c>
-      <c r="R6">
-        <v>30.78</v>
-      </c>
-      <c r="S6">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="T6">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="U6">
-        <v>1.6E-2</v>
-      </c>
-      <c r="V6">
-        <v>3.8690000000000002</v>
-      </c>
-      <c r="W6">
-        <v>1.8280000000000001</v>
-      </c>
-      <c r="X6">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="Y6">
-        <v>30.562000000000001</v>
-      </c>
-      <c r="Z6">
-        <v>0.105</v>
-      </c>
-      <c r="AA6">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="AB6">
-        <v>-0.152</v>
-      </c>
-      <c r="AC6">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="AD6">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="AE6">
-        <v>1.6E-2</v>
-      </c>
-      <c r="AF6">
-        <v>0.156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>2413</v>
-      </c>
-      <c r="F7">
-        <v>0.15</v>
-      </c>
-      <c r="G7">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="H7">
-        <v>7.0651304052515504E-2</v>
-      </c>
-      <c r="I7">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="J7">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="K7">
-        <v>14.21</v>
-      </c>
-      <c r="L7">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="M7">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="N7">
-        <v>0.188</v>
-      </c>
-      <c r="O7">
-        <v>1.5369999999999999</v>
-      </c>
-      <c r="P7">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="Q7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="R7">
-        <v>6.3719999999999999</v>
-      </c>
-      <c r="S7">
-        <v>0.999</v>
-      </c>
-      <c r="T7">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="U7" t="s">
-        <v>25</v>
-      </c>
-      <c r="V7">
-        <v>6.4020000000000001</v>
-      </c>
-      <c r="W7">
-        <v>2.5390000000000001</v>
-      </c>
-      <c r="X7">
-        <v>1.2E-2</v>
-      </c>
-      <c r="Y7">
-        <v>7.851</v>
-      </c>
-      <c r="Z7">
-        <v>0.996</v>
-      </c>
-      <c r="AA7">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="AB7">
-        <v>-3.5000000000000003E-2</v>
-      </c>
-      <c r="AC7">
-        <v>0.18</v>
-      </c>
-      <c r="AD7">
-        <v>0.151</v>
-      </c>
-      <c r="AE7">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="AF7">
-        <v>0.216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8">
-        <v>39</v>
-      </c>
-      <c r="E8">
-        <v>3328</v>
-      </c>
-      <c r="F8">
-        <v>0.151</v>
-      </c>
-      <c r="G8">
-        <v>0.127</v>
-      </c>
-      <c r="H8">
-        <v>5.2187692355472999E-2</v>
-      </c>
-      <c r="I8">
-        <v>0.17</v>
-      </c>
-      <c r="J8">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="K8">
-        <v>45.231000000000002</v>
-      </c>
-      <c r="L8">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="M8">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="N8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="O8">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="P8">
-        <v>0.39</v>
-      </c>
-      <c r="Q8">
-        <v>0.248</v>
-      </c>
-      <c r="R8">
-        <v>43.896999999999998</v>
-      </c>
-      <c r="S8">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="T8">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="U8" t="s">
-        <v>25</v>
-      </c>
-      <c r="V8">
-        <v>1.726</v>
-      </c>
-      <c r="W8">
-        <v>1.448</v>
-      </c>
-      <c r="X8">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="Y8">
-        <v>43.81</v>
-      </c>
-      <c r="Z8">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="AA8">
-        <v>0.127</v>
-      </c>
-      <c r="AB8">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="AC8">
-        <v>0.214</v>
-      </c>
-      <c r="AD8">
-        <v>0.152</v>
-      </c>
-      <c r="AE8">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="AF8">
-        <v>0.20300000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>11615</v>
-      </c>
-      <c r="F9">
-        <v>0.253</v>
-      </c>
-      <c r="G9">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="H9">
-        <v>0.26716515432230098</v>
-      </c>
-      <c r="I9">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="J9">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="K9">
-        <v>50.732999999999997</v>
-      </c>
-      <c r="L9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="N9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9">
-        <v>1.117</v>
-      </c>
-      <c r="P9">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="Q9">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="R9">
-        <v>45.375</v>
-      </c>
-      <c r="S9">
-        <v>1E-3</v>
-      </c>
-      <c r="T9">
-        <v>1.2E-2</v>
-      </c>
-      <c r="U9" t="s">
-        <v>25</v>
-      </c>
-      <c r="V9">
-        <v>8.9830000000000005</v>
-      </c>
-      <c r="W9">
-        <v>4.41</v>
-      </c>
-      <c r="X9">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="Y9">
-        <v>46.584000000000003</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA9">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="AB9">
-        <v>0.189</v>
-      </c>
-      <c r="AC9">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="AD9">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="AE9">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="AF9">
-        <v>0.28499999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10">
-        <v>36</v>
-      </c>
-      <c r="E10">
-        <v>28337</v>
-      </c>
-      <c r="F10">
-        <v>0.189</v>
-      </c>
-      <c r="G10">
-        <v>0.152</v>
-      </c>
-      <c r="H10">
-        <v>0.226011005235776</v>
-      </c>
-      <c r="I10">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="J10">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="K10">
-        <v>176.14400000000001</v>
-      </c>
-      <c r="L10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10">
-        <v>1.2E-2</v>
-      </c>
-      <c r="N10" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10">
-        <v>1.6870000000000001</v>
-      </c>
-      <c r="P10">
-        <v>0.33</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>25</v>
-      </c>
-      <c r="R10">
-        <v>150.02699999999999</v>
-      </c>
-      <c r="S10" t="s">
-        <v>25</v>
-      </c>
-      <c r="T10">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="U10" t="s">
-        <v>25</v>
-      </c>
-      <c r="V10">
-        <v>11.912000000000001</v>
-      </c>
-      <c r="W10">
-        <v>2.968</v>
-      </c>
-      <c r="X10" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y10">
-        <v>160.03399999999999</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA10">
-        <v>0.153</v>
-      </c>
-      <c r="AB10">
-        <v>0.13</v>
-      </c>
-      <c r="AC10">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="AD10">
-        <v>0.191</v>
-      </c>
-      <c r="AE10">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="AF10">
-        <v>0.20599999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>24</v>
-      </c>
-      <c r="E11">
-        <v>2887</v>
-      </c>
-      <c r="F11">
-        <v>0.18</v>
-      </c>
-      <c r="G11">
-        <v>0.107</v>
-      </c>
-      <c r="H11">
-        <v>0.185129660882245</v>
-      </c>
-      <c r="I11">
-        <v>0.217</v>
-      </c>
-      <c r="J11">
-        <v>0.222</v>
-      </c>
-      <c r="K11">
-        <v>35.11</v>
-      </c>
-      <c r="L11">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="M11">
-        <v>6.2E-2</v>
-      </c>
-      <c r="N11">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="O11">
-        <v>1.2909999999999999</v>
-      </c>
-      <c r="P11">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="Q11">
-        <v>5.5E-2</v>
-      </c>
-      <c r="R11">
-        <v>31.44</v>
-      </c>
-      <c r="S11">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="T11">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="U11" t="s">
-        <v>25</v>
-      </c>
-      <c r="V11">
-        <v>4.7329999999999997</v>
-      </c>
-      <c r="W11">
-        <v>2.4159999999999999</v>
-      </c>
-      <c r="X11">
-        <v>0.05</v>
-      </c>
-      <c r="Y11">
-        <v>31.273</v>
-      </c>
-      <c r="Z11">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="AA11">
-        <v>0.107</v>
-      </c>
-      <c r="AB11">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-      <c r="AC11">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="AD11">
-        <v>0.182</v>
-      </c>
-      <c r="AE11">
-        <v>0.126</v>
-      </c>
-      <c r="AF11">
-        <v>0.23899999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12">
-        <v>41</v>
-      </c>
-      <c r="E12">
-        <v>4189.5</v>
-      </c>
-      <c r="F12">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="G12">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="H12">
-        <v>0.205134435120404</v>
-      </c>
-      <c r="I12">
-        <v>0.21</v>
-      </c>
-      <c r="J12">
-        <v>0.216</v>
-      </c>
-      <c r="K12">
-        <v>81.087000000000003</v>
-      </c>
-      <c r="L12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="N12">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="O12">
-        <v>0.76300000000000001</v>
-      </c>
-      <c r="P12">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="Q12">
-        <v>0.111</v>
-      </c>
-      <c r="R12">
-        <v>78.551000000000002</v>
-      </c>
-      <c r="S12" t="s">
-        <v>25</v>
-      </c>
-      <c r="T12">
-        <v>2.4E-2</v>
-      </c>
-      <c r="U12" t="s">
-        <v>25</v>
-      </c>
-      <c r="V12">
-        <v>3.3410000000000002</v>
-      </c>
-      <c r="W12">
-        <v>1.8080000000000001</v>
-      </c>
-      <c r="X12">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="Y12">
-        <v>77.67</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA12">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="AB12">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="AC12">
-        <v>0.24</v>
-      </c>
-      <c r="AD12">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="AE12">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="AF12">
-        <v>0.23100000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>16</v>
-      </c>
-      <c r="E13">
-        <v>7221</v>
-      </c>
-      <c r="F13">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="G13">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="H13">
-        <v>0.17207011445932599</v>
-      </c>
-      <c r="I13">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="J13">
-        <v>0.184</v>
-      </c>
-      <c r="K13">
-        <v>41.537999999999997</v>
-      </c>
-      <c r="L13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13">
-        <v>3.1E-2</v>
-      </c>
-      <c r="N13">
-        <v>1E-3</v>
-      </c>
-      <c r="O13">
-        <v>1.6180000000000001</v>
-      </c>
-      <c r="P13">
-        <v>0.64900000000000002</v>
-      </c>
-      <c r="Q13">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="R13">
-        <v>35.313000000000002</v>
-      </c>
-      <c r="S13">
-        <v>1E-3</v>
-      </c>
-      <c r="T13">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="U13" t="s">
-        <v>25</v>
-      </c>
-      <c r="V13">
-        <v>10.128</v>
-      </c>
-      <c r="W13">
-        <v>5.4589999999999996</v>
-      </c>
-      <c r="X13">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="Y13">
-        <v>38.095999999999997</v>
-      </c>
-      <c r="Z13">
-        <v>1E-3</v>
-      </c>
-      <c r="AA13">
-        <v>0.1</v>
-      </c>
-      <c r="AB13">
-        <v>3.9E-2</v>
-      </c>
-      <c r="AC13">
-        <v>0.161</v>
-      </c>
-      <c r="AD13">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="AE13">
-        <v>0.115</v>
-      </c>
-      <c r="AF13">
-        <v>0.183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>12236</v>
-      </c>
-      <c r="F14">
-        <v>0.13</v>
-      </c>
-      <c r="G14">
-        <v>6.3E-2</v>
-      </c>
-      <c r="H14">
-        <v>0.16957434468579899</v>
-      </c>
-      <c r="I14">
-        <v>0.16</v>
-      </c>
-      <c r="J14">
-        <v>0.191</v>
-      </c>
-      <c r="K14">
-        <v>105.506</v>
-      </c>
-      <c r="L14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="N14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="O14">
-        <v>2.593</v>
-      </c>
-      <c r="P14">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>25</v>
-      </c>
-      <c r="R14">
-        <v>82.343999999999994</v>
-      </c>
-      <c r="S14" t="s">
-        <v>25</v>
-      </c>
-      <c r="T14">
-        <v>1.2E-2</v>
-      </c>
-      <c r="U14" t="s">
-        <v>25</v>
-      </c>
-      <c r="V14">
-        <v>17.943000000000001</v>
-      </c>
-      <c r="W14">
-        <v>4.9610000000000003</v>
-      </c>
-      <c r="X14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y14">
-        <v>92.427000000000007</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA14">
-        <v>6.3E-2</v>
-      </c>
-      <c r="AB14">
-        <v>1.9E-2</v>
-      </c>
-      <c r="AC14">
-        <v>0.107</v>
-      </c>
-      <c r="AD14">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="AE14">
-        <v>0.106</v>
-      </c>
-      <c r="AF14">
-        <v>0.156</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2972,7 +1619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -3285,4 +1932,1559 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="H1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>168</v>
+      </c>
+      <c r="D3">
+        <v>155</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3">
+        <v>57</v>
+      </c>
+      <c r="I3">
+        <v>42</v>
+      </c>
+      <c r="J3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>31</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9">
+        <v>204</v>
+      </c>
+      <c r="D9">
+        <v>119</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9">
+        <v>81</v>
+      </c>
+      <c r="I9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>1318</v>
+      </c>
+      <c r="F2">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="G2">
+        <v>-0.12</v>
+      </c>
+      <c r="H2">
+        <v>0.155033822575671</v>
+      </c>
+      <c r="I2">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="J2">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="K2">
+        <v>43.466999999999999</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="N2">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="O2">
+        <v>3.6669999999999998</v>
+      </c>
+      <c r="P2">
+        <v>0.78</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2">
+        <v>21.376999999999999</v>
+      </c>
+      <c r="S2">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="T2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="U2">
+        <v>1E-3</v>
+      </c>
+      <c r="V2">
+        <v>10.862</v>
+      </c>
+      <c r="W2">
+        <v>2.4529999999999998</v>
+      </c>
+      <c r="X2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2">
+        <v>23.864000000000001</v>
+      </c>
+      <c r="Z2">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="AA2">
+        <v>-0.12</v>
+      </c>
+      <c r="AB2">
+        <v>-0.312</v>
+      </c>
+      <c r="AC2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="AD2">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="AE2">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AF2">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3">
+        <v>34</v>
+      </c>
+      <c r="E3">
+        <v>2879</v>
+      </c>
+      <c r="F3">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="G3">
+        <v>-0.112</v>
+      </c>
+      <c r="H3">
+        <v>0.164328546161532</v>
+      </c>
+      <c r="I3">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="J3">
+        <v>0.217</v>
+      </c>
+      <c r="K3">
+        <v>101.94799999999999</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="N3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="O3">
+        <v>2.7429999999999999</v>
+      </c>
+      <c r="P3">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3">
+        <v>74.948999999999998</v>
+      </c>
+      <c r="S3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3">
+        <v>0.03</v>
+      </c>
+      <c r="U3">
+        <v>0.04</v>
+      </c>
+      <c r="V3">
+        <v>9.3019999999999996</v>
+      </c>
+      <c r="W3">
+        <v>1.879</v>
+      </c>
+      <c r="X3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y3">
+        <v>77.444000000000003</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA3">
+        <v>-0.112</v>
+      </c>
+      <c r="AB3">
+        <v>-0.23</v>
+      </c>
+      <c r="AC3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AD3">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="AE3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AF3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>9811</v>
+      </c>
+      <c r="F4">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.106</v>
+      </c>
+      <c r="H4">
+        <v>0.163590776695582</v>
+      </c>
+      <c r="I4">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="J4">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="K4">
+        <v>151.178</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4">
+        <v>2.4E-2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4">
+        <v>1.264</v>
+      </c>
+      <c r="P4">
+        <v>0.64</v>
+      </c>
+      <c r="Q4">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="R4">
+        <v>147.28100000000001</v>
+      </c>
+      <c r="S4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="U4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4">
+        <v>8.4030000000000005</v>
+      </c>
+      <c r="W4">
+        <v>6.2430000000000003</v>
+      </c>
+      <c r="X4">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="Y4">
+        <v>149.36600000000001</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA4">
+        <v>0.106</v>
+      </c>
+      <c r="AB4">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AC4">
+        <v>0.155</v>
+      </c>
+      <c r="AD4">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="AE4">
+        <v>0.111</v>
+      </c>
+      <c r="AF4">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>833</v>
+      </c>
+      <c r="F5">
+        <v>0.183</v>
+      </c>
+      <c r="G5">
+        <v>0.128</v>
+      </c>
+      <c r="H5">
+        <v>0.26218602019647602</v>
+      </c>
+      <c r="I5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="J5">
+        <v>0.21</v>
+      </c>
+      <c r="K5">
+        <v>18.858000000000001</v>
+      </c>
+      <c r="L5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="M5">
+        <v>0.106</v>
+      </c>
+      <c r="N5">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.66</v>
+      </c>
+      <c r="P5">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="Q5">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="R5">
+        <v>18.327000000000002</v>
+      </c>
+      <c r="S5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="T5">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="U5">
+        <v>1E-3</v>
+      </c>
+      <c r="V5">
+        <v>1.3140000000000001</v>
+      </c>
+      <c r="W5">
+        <v>3.149</v>
+      </c>
+      <c r="X5">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="Y5">
+        <v>18.684000000000001</v>
+      </c>
+      <c r="Z5">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AA5">
+        <v>0.129</v>
+      </c>
+      <c r="AB5">
+        <v>-0.08</v>
+      </c>
+      <c r="AC5">
+        <v>0.35</v>
+      </c>
+      <c r="AD5">
+        <v>0.185</v>
+      </c>
+      <c r="AE5">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="AF5">
+        <v>0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1770</v>
+      </c>
+      <c r="F6">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G6">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="H6">
+        <v>0.26864818159793202</v>
+      </c>
+      <c r="I6">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="J6">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="K6">
+        <v>35.042000000000002</v>
+      </c>
+      <c r="L6">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="M6">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="N6">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="O6">
+        <v>1.292</v>
+      </c>
+      <c r="P6">
+        <v>0.626</v>
+      </c>
+      <c r="Q6">
+        <v>3.9E-2</v>
+      </c>
+      <c r="R6">
+        <v>30.78</v>
+      </c>
+      <c r="S6">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="T6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="U6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="V6">
+        <v>3.8690000000000002</v>
+      </c>
+      <c r="W6">
+        <v>1.8280000000000001</v>
+      </c>
+      <c r="X6">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="Y6">
+        <v>30.562000000000001</v>
+      </c>
+      <c r="Z6">
+        <v>0.105</v>
+      </c>
+      <c r="AA6">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="AB6">
+        <v>-0.152</v>
+      </c>
+      <c r="AC6">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="AD6">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AE6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AF6">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>2413</v>
+      </c>
+      <c r="F7">
+        <v>0.15</v>
+      </c>
+      <c r="G7">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H7">
+        <v>7.0651304052515504E-2</v>
+      </c>
+      <c r="I7">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="J7">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="K7">
+        <v>14.21</v>
+      </c>
+      <c r="L7">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="M7">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="N7">
+        <v>0.188</v>
+      </c>
+      <c r="O7">
+        <v>1.5369999999999999</v>
+      </c>
+      <c r="P7">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="Q7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R7">
+        <v>6.3719999999999999</v>
+      </c>
+      <c r="S7">
+        <v>0.999</v>
+      </c>
+      <c r="T7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="U7" t="s">
+        <v>25</v>
+      </c>
+      <c r="V7">
+        <v>6.4020000000000001</v>
+      </c>
+      <c r="W7">
+        <v>2.5390000000000001</v>
+      </c>
+      <c r="X7">
+        <v>1.2E-2</v>
+      </c>
+      <c r="Y7">
+        <v>7.851</v>
+      </c>
+      <c r="Z7">
+        <v>0.996</v>
+      </c>
+      <c r="AA7">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="AB7">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="AC7">
+        <v>0.18</v>
+      </c>
+      <c r="AD7">
+        <v>0.151</v>
+      </c>
+      <c r="AE7">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="AF7">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>39</v>
+      </c>
+      <c r="E8">
+        <v>3328</v>
+      </c>
+      <c r="F8">
+        <v>0.151</v>
+      </c>
+      <c r="G8">
+        <v>0.127</v>
+      </c>
+      <c r="H8">
+        <v>5.2187692355472999E-2</v>
+      </c>
+      <c r="I8">
+        <v>0.17</v>
+      </c>
+      <c r="J8">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="K8">
+        <v>45.231000000000002</v>
+      </c>
+      <c r="L8">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="M8">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="N8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O8">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="P8">
+        <v>0.39</v>
+      </c>
+      <c r="Q8">
+        <v>0.248</v>
+      </c>
+      <c r="R8">
+        <v>43.896999999999998</v>
+      </c>
+      <c r="S8">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="T8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="U8" t="s">
+        <v>25</v>
+      </c>
+      <c r="V8">
+        <v>1.726</v>
+      </c>
+      <c r="W8">
+        <v>1.448</v>
+      </c>
+      <c r="X8">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="Y8">
+        <v>43.81</v>
+      </c>
+      <c r="Z8">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="AA8">
+        <v>0.127</v>
+      </c>
+      <c r="AB8">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="AC8">
+        <v>0.214</v>
+      </c>
+      <c r="AD8">
+        <v>0.152</v>
+      </c>
+      <c r="AE8">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="AF8">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>11615</v>
+      </c>
+      <c r="F9">
+        <v>0.253</v>
+      </c>
+      <c r="G9">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.26716515432230098</v>
+      </c>
+      <c r="I9">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="J9">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="K9">
+        <v>50.732999999999997</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9">
+        <v>1.117</v>
+      </c>
+      <c r="P9">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="Q9">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="R9">
+        <v>45.375</v>
+      </c>
+      <c r="S9">
+        <v>1E-3</v>
+      </c>
+      <c r="T9">
+        <v>1.2E-2</v>
+      </c>
+      <c r="U9" t="s">
+        <v>25</v>
+      </c>
+      <c r="V9">
+        <v>8.9830000000000005</v>
+      </c>
+      <c r="W9">
+        <v>4.41</v>
+      </c>
+      <c r="X9">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="Y9">
+        <v>46.584000000000003</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA9">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="AB9">
+        <v>0.189</v>
+      </c>
+      <c r="AC9">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="AD9">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AE9">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="AF9">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>36</v>
+      </c>
+      <c r="E10">
+        <v>28337</v>
+      </c>
+      <c r="F10">
+        <v>0.189</v>
+      </c>
+      <c r="G10">
+        <v>0.152</v>
+      </c>
+      <c r="H10">
+        <v>0.226011005235776</v>
+      </c>
+      <c r="I10">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="J10">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="K10">
+        <v>176.14400000000001</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10">
+        <v>1.2E-2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10">
+        <v>1.6870000000000001</v>
+      </c>
+      <c r="P10">
+        <v>0.33</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10">
+        <v>150.02699999999999</v>
+      </c>
+      <c r="S10" t="s">
+        <v>25</v>
+      </c>
+      <c r="T10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="U10" t="s">
+        <v>25</v>
+      </c>
+      <c r="V10">
+        <v>11.912000000000001</v>
+      </c>
+      <c r="W10">
+        <v>2.968</v>
+      </c>
+      <c r="X10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y10">
+        <v>160.03399999999999</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA10">
+        <v>0.153</v>
+      </c>
+      <c r="AB10">
+        <v>0.13</v>
+      </c>
+      <c r="AC10">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AD10">
+        <v>0.191</v>
+      </c>
+      <c r="AE10">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AF10">
+        <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2887</v>
+      </c>
+      <c r="F11">
+        <v>0.18</v>
+      </c>
+      <c r="G11">
+        <v>0.107</v>
+      </c>
+      <c r="H11">
+        <v>0.185129660882245</v>
+      </c>
+      <c r="I11">
+        <v>0.217</v>
+      </c>
+      <c r="J11">
+        <v>0.222</v>
+      </c>
+      <c r="K11">
+        <v>35.11</v>
+      </c>
+      <c r="L11">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="M11">
+        <v>6.2E-2</v>
+      </c>
+      <c r="N11">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="O11">
+        <v>1.2909999999999999</v>
+      </c>
+      <c r="P11">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="Q11">
+        <v>5.5E-2</v>
+      </c>
+      <c r="R11">
+        <v>31.44</v>
+      </c>
+      <c r="S11">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="T11">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="U11" t="s">
+        <v>25</v>
+      </c>
+      <c r="V11">
+        <v>4.7329999999999997</v>
+      </c>
+      <c r="W11">
+        <v>2.4159999999999999</v>
+      </c>
+      <c r="X11">
+        <v>0.05</v>
+      </c>
+      <c r="Y11">
+        <v>31.273</v>
+      </c>
+      <c r="Z11">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="AA11">
+        <v>0.107</v>
+      </c>
+      <c r="AB11">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="AC11">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="AD11">
+        <v>0.182</v>
+      </c>
+      <c r="AE11">
+        <v>0.126</v>
+      </c>
+      <c r="AF11">
+        <v>0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>41</v>
+      </c>
+      <c r="E12">
+        <v>4189.5</v>
+      </c>
+      <c r="F12">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="G12">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.205134435120404</v>
+      </c>
+      <c r="I12">
+        <v>0.21</v>
+      </c>
+      <c r="J12">
+        <v>0.216</v>
+      </c>
+      <c r="K12">
+        <v>81.087000000000003</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="N12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O12">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="P12">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="Q12">
+        <v>0.111</v>
+      </c>
+      <c r="R12">
+        <v>78.551000000000002</v>
+      </c>
+      <c r="S12" t="s">
+        <v>25</v>
+      </c>
+      <c r="T12">
+        <v>2.4E-2</v>
+      </c>
+      <c r="U12" t="s">
+        <v>25</v>
+      </c>
+      <c r="V12">
+        <v>3.3410000000000002</v>
+      </c>
+      <c r="W12">
+        <v>1.8080000000000001</v>
+      </c>
+      <c r="X12">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="Y12">
+        <v>77.67</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA12">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="AB12">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AC12">
+        <v>0.24</v>
+      </c>
+      <c r="AD12">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="AE12">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="AF12">
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>7221</v>
+      </c>
+      <c r="F13">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="G13">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="H13">
+        <v>0.17207011445932599</v>
+      </c>
+      <c r="I13">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="J13">
+        <v>0.184</v>
+      </c>
+      <c r="K13">
+        <v>41.537999999999997</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13">
+        <v>3.1E-2</v>
+      </c>
+      <c r="N13">
+        <v>1E-3</v>
+      </c>
+      <c r="O13">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="P13">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="Q13">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="R13">
+        <v>35.313000000000002</v>
+      </c>
+      <c r="S13">
+        <v>1E-3</v>
+      </c>
+      <c r="T13">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="U13" t="s">
+        <v>25</v>
+      </c>
+      <c r="V13">
+        <v>10.128</v>
+      </c>
+      <c r="W13">
+        <v>5.4589999999999996</v>
+      </c>
+      <c r="X13">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="Y13">
+        <v>38.095999999999997</v>
+      </c>
+      <c r="Z13">
+        <v>1E-3</v>
+      </c>
+      <c r="AA13">
+        <v>0.1</v>
+      </c>
+      <c r="AB13">
+        <v>3.9E-2</v>
+      </c>
+      <c r="AC13">
+        <v>0.161</v>
+      </c>
+      <c r="AD13">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AE13">
+        <v>0.115</v>
+      </c>
+      <c r="AF13">
+        <v>0.183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>12236</v>
+      </c>
+      <c r="F14">
+        <v>0.13</v>
+      </c>
+      <c r="G14">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.16957434468579899</v>
+      </c>
+      <c r="I14">
+        <v>0.16</v>
+      </c>
+      <c r="J14">
+        <v>0.191</v>
+      </c>
+      <c r="K14">
+        <v>105.506</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="N14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O14">
+        <v>2.593</v>
+      </c>
+      <c r="P14">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R14">
+        <v>82.343999999999994</v>
+      </c>
+      <c r="S14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14">
+        <v>1.2E-2</v>
+      </c>
+      <c r="U14" t="s">
+        <v>25</v>
+      </c>
+      <c r="V14">
+        <v>17.943000000000001</v>
+      </c>
+      <c r="W14">
+        <v>4.9610000000000003</v>
+      </c>
+      <c r="X14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y14">
+        <v>92.427000000000007</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA14">
+        <v>6.3E-2</v>
+      </c>
+      <c r="AB14">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AC14">
+        <v>0.107</v>
+      </c>
+      <c r="AD14">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="AE14">
+        <v>0.106</v>
+      </c>
+      <c r="AF14">
+        <v>0.156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>